--- a/data/hotels_by_city/Houston/Houston_shard_513.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_513.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d223157-Reviews-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Quality-Inn-Suites-Hwy-290-Brookhollow.h695751.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,496 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r574785609-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223157</t>
+  </si>
+  <si>
+    <t>574785609</t>
+  </si>
+  <si>
+    <t>04/21/2018</t>
+  </si>
+  <si>
+    <t>Stained, have to ask for shampoo....</t>
+  </si>
+  <si>
+    <t>The good: a/c works. Hot water gets hot almost instantly. Bed was comfortable enough. Couch was a hide-a-bed. Microwave and mini fridge, iron, ironing board in room. It did not smell. There is a nice, covered table outside by the pool. The not-so-good: there were no extra linens, blankets or pillows so the hide away bed was a challenge to make comfortable. Other guests in the room shared from their beds to make it okay.  The carpet was stained. Though the shampoo bottles were empty with the 1st use, the housekeeping staff did not replace them. You have to ask to get what us traditionally provided automatically. There were poorly patched holes in the wall. The doors dividing the room were poorly hung and stuck. The sausage on the breakfast bar was awful. The check in staff failed to provide the user name and password for electronic devices. When asked, I was told “you don’t need a user name”. Calling a guest a liter when the guest is actually looking at the site requiring the user name is not right. Next day, I took my device to the front desk and was provided both the user name and password required. One IPad never connected. The rooms are fairly dark. Not my favorite place to stay, but I realize it could have been worse. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Nerissa M, Guest Relations Manager at Quality Inn &amp; Suites Houston, responded to this reviewResponded July 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2018</t>
+  </si>
+  <si>
+    <t>The good: a/c works. Hot water gets hot almost instantly. Bed was comfortable enough. Couch was a hide-a-bed. Microwave and mini fridge, iron, ironing board in room. It did not smell. There is a nice, covered table outside by the pool. The not-so-good: there were no extra linens, blankets or pillows so the hide away bed was a challenge to make comfortable. Other guests in the room shared from their beds to make it okay.  The carpet was stained. Though the shampoo bottles were empty with the 1st use, the housekeeping staff did not replace them. You have to ask to get what us traditionally provided automatically. There were poorly patched holes in the wall. The doors dividing the room were poorly hung and stuck. The sausage on the breakfast bar was awful. The check in staff failed to provide the user name and password for electronic devices. When asked, I was told “you don’t need a user name”. Calling a guest a liter when the guest is actually looking at the site requiring the user name is not right. Next day, I took my device to the front desk and was provided both the user name and password required. One IPad never connected. The rooms are fairly dark. Not my favorite place to stay, but I realize it could have been worse. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r539724654-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539724654</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Upon arrival I asked for a late check-in and hung the do not disturb sign up.  At 10:25 (before even regular check-out) the maid was knocking on my door.  :(   On top of that, the A/C would only work on fan so I was hot the entire night.  The rest of the room was OK (no funky smells or odors).  But, I probably would not stay again unless I was really in need.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Upon arrival I asked for a late check-in and hung the do not disturb sign up.  At 10:25 (before even regular check-out) the maid was knocking on my door.  :(   On top of that, the A/C would only work on fan so I was hot the entire night.  The rest of the room was OK (no funky smells or odors).  But, I probably would not stay again unless I was really in need.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r502920233-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>502920233</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Nice Motel on Bad Freeway</t>
+  </si>
+  <si>
+    <t>This is a nice relatively modern property. I had no major complaints but the fountain in the fitness center does not work and maybe it is redundant because there is one working just outside the door of the room. Not redundant is the inoperative ice machine on the first floor requiring a trip to the third floor for ice. The highway department manage to place the new entrance ramp to the freeway about 50 feet out of reach from the motel making you go through multiple slow lights to enter the freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>This is a nice relatively modern property. I had no major complaints but the fountain in the fitness center does not work and maybe it is redundant because there is one working just outside the door of the room. Not redundant is the inoperative ice machine on the first floor requiring a trip to the third floor for ice. The highway department manage to place the new entrance ramp to the freeway about 50 feet out of reach from the motel making you go through multiple slow lights to enter the freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r449445597-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>449445597</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>Not worth the money spent!!!</t>
+  </si>
+  <si>
+    <t>The smell as you enter the room is horrid! The smoke detector is missing in the room and the switch to one of the lights is broken. The window from the outside is filthy. The red light on the phone keeps blinking as if there is a message but their is not. I am not a high maintainance person but this was not what I expected.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>The smell as you enter the room is horrid! The smoke detector is missing in the room and the switch to one of the lights is broken. The window from the outside is filthy. The red light on the phone keeps blinking as if there is a message but their is not. I am not a high maintainance person but this was not what I expected.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r439371581-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>439371581</t>
+  </si>
+  <si>
+    <t>11/22/2016</t>
+  </si>
+  <si>
+    <t>STAY AWAY!!!</t>
+  </si>
+  <si>
+    <t>My boyfriend and I had a room booked for two nights, 11/18-11/20/16.
+We checked into this hotel around 7:30 on Friday, 11/18, evening and immediately found the hotel in unacceptable condition. The lobby roof was leaking with water being caught by a bucket, the air was stale because the a/c was obviously broken, and the carpets in the halls were dirty. When we checked into our first room, 209, we found a startling amount of mold in the a/c unit. We spoke to the front desk clerk, Lizelle, who checked us in originally. We were moved to room 211, which was also in unacceptable condition. We found mold spores on the a/c unit, rotting flower petals behind the bed, trash from a previous occupant, and the tub dirty. I started feeling sick from the amount of mold I was breathing in. We no longer felt that moving rooms would obviously be acceptable. As we left the second room, we passed the ice machine and saw that it was completely coated in mold and rust.
+We went back down to the front desk to inform Lizelle we did not feel comfortable staying on the property and wanted to speak to the manager for a refund. She told us he wasn't on property and did not know when he would be available again. She also said she could not cancel our booking due to it being booked on a 3rd party site....My boyfriend and I had a room booked for two nights, 11/18-11/20/16.We checked into this hotel around 7:30 on Friday, 11/18, evening and immediately found the hotel in unacceptable condition. The lobby roof was leaking with water being caught by a bucket, the air was stale because the a/c was obviously broken, and the carpets in the halls were dirty. When we checked into our first room, 209, we found a startling amount of mold in the a/c unit. We spoke to the front desk clerk, Lizelle, who checked us in originally. We were moved to room 211, which was also in unacceptable condition. We found mold spores on the a/c unit, rotting flower petals behind the bed, trash from a previous occupant, and the tub dirty. I started feeling sick from the amount of mold I was breathing in. We no longer felt that moving rooms would obviously be acceptable. As we left the second room, we passed the ice machine and saw that it was completely coated in mold and rust.We went back down to the front desk to inform Lizelle we did not feel comfortable staying on the property and wanted to speak to the manager for a refund. She told us he wasn't on property and did not know when he would be available again. She also said she could not cancel our booking due to it being booked on a 3rd party site. Lizelle said to contact the hotel next week to try and speak with him.On Monday, I tried calling the hotel to speak with the manager, was told he was not there, so I left a message. I have not heard from the manager, yet was refunded for my booking.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Rick P, General Manager at Quality Inn &amp; Suites Houston, responded to this reviewResponded November 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2016</t>
+  </si>
+  <si>
+    <t>My boyfriend and I had a room booked for two nights, 11/18-11/20/16.
+We checked into this hotel around 7:30 on Friday, 11/18, evening and immediately found the hotel in unacceptable condition. The lobby roof was leaking with water being caught by a bucket, the air was stale because the a/c was obviously broken, and the carpets in the halls were dirty. When we checked into our first room, 209, we found a startling amount of mold in the a/c unit. We spoke to the front desk clerk, Lizelle, who checked us in originally. We were moved to room 211, which was also in unacceptable condition. We found mold spores on the a/c unit, rotting flower petals behind the bed, trash from a previous occupant, and the tub dirty. I started feeling sick from the amount of mold I was breathing in. We no longer felt that moving rooms would obviously be acceptable. As we left the second room, we passed the ice machine and saw that it was completely coated in mold and rust.
+We went back down to the front desk to inform Lizelle we did not feel comfortable staying on the property and wanted to speak to the manager for a refund. She told us he wasn't on property and did not know when he would be available again. She also said she could not cancel our booking due to it being booked on a 3rd party site....My boyfriend and I had a room booked for two nights, 11/18-11/20/16.We checked into this hotel around 7:30 on Friday, 11/18, evening and immediately found the hotel in unacceptable condition. The lobby roof was leaking with water being caught by a bucket, the air was stale because the a/c was obviously broken, and the carpets in the halls were dirty. When we checked into our first room, 209, we found a startling amount of mold in the a/c unit. We spoke to the front desk clerk, Lizelle, who checked us in originally. We were moved to room 211, which was also in unacceptable condition. We found mold spores on the a/c unit, rotting flower petals behind the bed, trash from a previous occupant, and the tub dirty. I started feeling sick from the amount of mold I was breathing in. We no longer felt that moving rooms would obviously be acceptable. As we left the second room, we passed the ice machine and saw that it was completely coated in mold and rust.We went back down to the front desk to inform Lizelle we did not feel comfortable staying on the property and wanted to speak to the manager for a refund. She told us he wasn't on property and did not know when he would be available again. She also said she could not cancel our booking due to it being booked on a 3rd party site. Lizelle said to contact the hotel next week to try and speak with him.On Monday, I tried calling the hotel to speak with the manager, was told he was not there, so I left a message. I have not heard from the manager, yet was refunded for my booking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r421745194-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>421745194</t>
+  </si>
+  <si>
+    <t>09/24/2016</t>
+  </si>
+  <si>
+    <t>A pleasant stay</t>
+  </si>
+  <si>
+    <t>We had a good stay at the Quality Inn. The place looks fairly new and we had a nice big room that was comfortable and quiet. Everything was cleaned properly, the hot breakfast in the spacey breakfast room contained sausages and eggs, so we left happy. Also, a question about the coffee machine was dealt with promptly.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>We had a good stay at the Quality Inn. The place looks fairly new and we had a nice big room that was comfortable and quiet. Everything was cleaned properly, the hot breakfast in the spacey breakfast room contained sausages and eggs, so we left happy. Also, a question about the coffee machine was dealt with promptly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r389500521-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>389500521</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Looks can be deceiving</t>
+  </si>
+  <si>
+    <t>The Lobby was really nice and I was excited about what I saw....Until...I started finding dead roaches. Five of them.  Then saw several more that were alive.  A shame because the room was nice, the staff was nice and the breakfast was good.  Just not happy about the bugs at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Rick P, Manager at Quality Inn &amp; Suites Houston, responded to this reviewResponded July 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2016</t>
+  </si>
+  <si>
+    <t>The Lobby was really nice and I was excited about what I saw....Until...I started finding dead roaches. Five of them.  Then saw several more that were alive.  A shame because the room was nice, the staff was nice and the breakfast was good.  Just not happy about the bugs at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r389109335-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>389109335</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>Below standard, would not return</t>
+  </si>
+  <si>
+    <t>The manager told me by phone that he'd work with me regrading adjusting a reservation but would not one I arrived when he was contacted by staff.  Dying cockroach in room.  Litter in parking lot and breakfast was not fresh.  Staff were helpful.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r366198039-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>366198039</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>Under Construction</t>
+  </si>
+  <si>
+    <t>I have stayed at this location several times before and even completed a review over a year ago.  The reason why I am submitting another review is due to the 290 construction.  l will start off with my list of pro's and con's to help guide you on selecting a hotel.Pro's:  hotel located off 290 and less than six minutes from 610, great value, parking lot with adequate lighting and clean hotel.Con's:  290 construction noise begins at 4-5am, furnishings are beginning to look a little worn and room temperature did not adequately regulate.  Please take into account the construction noise that you will experience during your stay if you are a light sleeper.  I understand that this issue is beyond the hotels control.  Try requesting a room opposing 290 or take some noise reduction items so that you can enjoy your stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>I have stayed at this location several times before and even completed a review over a year ago.  The reason why I am submitting another review is due to the 290 construction.  l will start off with my list of pro's and con's to help guide you on selecting a hotel.Pro's:  hotel located off 290 and less than six minutes from 610, great value, parking lot with adequate lighting and clean hotel.Con's:  290 construction noise begins at 4-5am, furnishings are beginning to look a little worn and room temperature did not adequately regulate.  Please take into account the construction noise that you will experience during your stay if you are a light sleeper.  I understand that this issue is beyond the hotels control.  Try requesting a room opposing 290 or take some noise reduction items so that you can enjoy your stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r348339322-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348339322</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t>Very nice accommodations, reasonable price</t>
+  </si>
+  <si>
+    <t>Very good, if not extravagant, breakfast. Very nice room, probably the best I've been in the past year. Wonderful staff. No pool. Easy access to highways. WiFi fairly fast.... and free. I'd stay here again without thinking twice.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r330746344-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>330746344</t>
+  </si>
+  <si>
+    <t>12/04/2015</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>Don't like writing reviews like that but my stay was terrible, awful, no qualifications to describe. Old furniture, everything smells like cigarette. Actually I don't know they would fine someone who smoked in the room since everything smeels like old and cigarette. One day the fire alarm started just in the middle of night. I did request reicipt by the end of my stay but (they could explain the reason) the staff was not able to provided. Finally, every day I had to check in because of demagnetization of my key card.  Even demonstrating my insatisfaction they charged USD 35 for 2 hours late check out. Do not reccomend at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Don't like writing reviews like that but my stay was terrible, awful, no qualifications to describe. Old furniture, everything smells like cigarette. Actually I don't know they would fine someone who smoked in the room since everything smeels like old and cigarette. One day the fire alarm started just in the middle of night. I did request reicipt by the end of my stay but (they could explain the reason) the staff was not able to provided. Finally, every day I had to check in because of demagnetization of my key card.  Even demonstrating my insatisfaction they charged USD 35 for 2 hours late check out. Do not reccomend at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r320782569-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>320782569</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>Had an extended stay (2weeks) staff was friendly</t>
+  </si>
+  <si>
+    <t>Room looked clean, wi-fi is super slow. Found a roach crawling across the floor, that made me nervous ! Bath room looked very clean, vending machine on 3rd floor was empty. The washer and dryer for laundry is old and slow.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r273609063-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273609063</t>
+  </si>
+  <si>
+    <t>05/21/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel, super staff !!!!</t>
+  </si>
+  <si>
+    <t>This hotel is located in N.W. Houston, easy access to Highway 290 - great if your traveling onto College Stn/Bryan, TX area.  This hotel had one of the cleanest rooms that I have ever stayed in !!  Courteous staff - from housekeeping, front desk &amp; maintenance.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r237900958-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237900958</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>Great Value and Friendly Staff</t>
+  </si>
+  <si>
+    <t>First off, this location used to be a Holiday Inn up to around one year ago.  The layout and decor of the rooms are in synch with what you'd expect to find at a Holiday Inn.  Literally the only thing missing here is the Holiday Inn logo.  
+I primarily choose this location because I've stayed her when it was a Holiday Inn and easy access off/on 290.  The parking area is very well lit, but tends to run out of space quickly.  That's my only feedback for this location when it's almost at full capacity - limited parking spaces.  Just make the front desk aware of this situation if it occurs during your stay for a resolution.  
+The staff is very friendly at this location and the front door locks after 12am.  The lobby area and hallways are very well tended to - clean.  Upon entering your hotel room you will literally think you were at a Holiday Inn.  Perhaps you'll find yourself checking your ticket as a reminder that you're at a Quality Inn.  The a/c unit works very well and will cool/heat your room quickly.  
+The furniture is in good condition as is the bedding.  All the electronics in my room were in great working condition as was the free internet.  One of the cons of this location is that you can hear the traffic off 290.  Aside from installing sound proof windows this is something you must...First off, this location used to be a Holiday Inn up to around one year ago.  The layout and decor of the rooms are in synch with what you'd expect to find at a Holiday Inn.  Literally the only thing missing here is the Holiday Inn logo.  I primarily choose this location because I've stayed her when it was a Holiday Inn and easy access off/on 290.  The parking area is very well lit, but tends to run out of space quickly.  That's my only feedback for this location when it's almost at full capacity - limited parking spaces.  Just make the front desk aware of this situation if it occurs during your stay for a resolution.  The staff is very friendly at this location and the front door locks after 12am.  The lobby area and hallways are very well tended to - clean.  Upon entering your hotel room you will literally think you were at a Holiday Inn.  Perhaps you'll find yourself checking your ticket as a reminder that you're at a Quality Inn.  The a/c unit works very well and will cool/heat your room quickly.  The furniture is in good condition as is the bedding.  All the electronics in my room were in great working condition as was the free internet.  One of the cons of this location is that you can hear the traffic off 290.  Aside from installing sound proof windows this is something you must consider if your room is facing 290.  So if you're looking for a great nights sleep for a great value stay at this location.  The pro's definitely outweigh the two cons that I notated.  You'll find yourself less than 5-10 minutes away from 610 and around 15-20 minutes from the Galleria area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Rick P, Guest Relations Manager at Quality Inn &amp; Suites Houston, responded to this reviewResponded November 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2014</t>
+  </si>
+  <si>
+    <t>First off, this location used to be a Holiday Inn up to around one year ago.  The layout and decor of the rooms are in synch with what you'd expect to find at a Holiday Inn.  Literally the only thing missing here is the Holiday Inn logo.  
+I primarily choose this location because I've stayed her when it was a Holiday Inn and easy access off/on 290.  The parking area is very well lit, but tends to run out of space quickly.  That's my only feedback for this location when it's almost at full capacity - limited parking spaces.  Just make the front desk aware of this situation if it occurs during your stay for a resolution.  
+The staff is very friendly at this location and the front door locks after 12am.  The lobby area and hallways are very well tended to - clean.  Upon entering your hotel room you will literally think you were at a Holiday Inn.  Perhaps you'll find yourself checking your ticket as a reminder that you're at a Quality Inn.  The a/c unit works very well and will cool/heat your room quickly.  
+The furniture is in good condition as is the bedding.  All the electronics in my room were in great working condition as was the free internet.  One of the cons of this location is that you can hear the traffic off 290.  Aside from installing sound proof windows this is something you must...First off, this location used to be a Holiday Inn up to around one year ago.  The layout and decor of the rooms are in synch with what you'd expect to find at a Holiday Inn.  Literally the only thing missing here is the Holiday Inn logo.  I primarily choose this location because I've stayed her when it was a Holiday Inn and easy access off/on 290.  The parking area is very well lit, but tends to run out of space quickly.  That's my only feedback for this location when it's almost at full capacity - limited parking spaces.  Just make the front desk aware of this situation if it occurs during your stay for a resolution.  The staff is very friendly at this location and the front door locks after 12am.  The lobby area and hallways are very well tended to - clean.  Upon entering your hotel room you will literally think you were at a Holiday Inn.  Perhaps you'll find yourself checking your ticket as a reminder that you're at a Quality Inn.  The a/c unit works very well and will cool/heat your room quickly.  The furniture is in good condition as is the bedding.  All the electronics in my room were in great working condition as was the free internet.  One of the cons of this location is that you can hear the traffic off 290.  Aside from installing sound proof windows this is something you must consider if your room is facing 290.  So if you're looking for a great nights sleep for a great value stay at this location.  The pro's definitely outweigh the two cons that I notated.  You'll find yourself less than 5-10 minutes away from 610 and around 15-20 minutes from the Galleria area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r221455386-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>221455386</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>Weekend getaway</t>
+  </si>
+  <si>
+    <t>Our second stay at this hotel wasn't what we had expected.  We stayed on August 8-10, 2014.  The first time we stayed back in March, complimentary drinks and appetizers were offered. They have since stopped that, but no mention on their website about it.  
+The room was clean and cool which in the Texas heat is nice.  The hotel wasn't very busy on this particular weekend, so that along with a room in a quiet location made for a good night's sleep. 
+Everything was fine until I called the front desk to ask for a late check-out.  I asked for a late check-out and the girl at the front desk actually said, "Well, it would be nice if you could "get out" by 11:00, because check-out is at 11:00.  I guess I could give you 30 minutes.  Would that be enough?"  I replied that I was waiting on an email that I would need to print out in the business center, and hopefully it would be there by then.  "I can give you till 12:00." was the response.  
+I am a Choice Privileges member and a late check-out is one of the perks.  As the site states: "Extended check-out (as late as 2:00 p.m.)".  Now, we weren't going to be there that late because we were headed to a baseball game that started at 1:00, but to have an employee ignore that fact and to say it would be nice...Our second stay at this hotel wasn't what we had expected.  We stayed on August 8-10, 2014.  The first time we stayed back in March, complimentary drinks and appetizers were offered. They have since stopped that, but no mention on their website about it.  The room was clean and cool which in the Texas heat is nice.  The hotel wasn't very busy on this particular weekend, so that along with a room in a quiet location made for a good night's sleep. Everything was fine until I called the front desk to ask for a late check-out.  I asked for a late check-out and the girl at the front desk actually said, "Well, it would be nice if you could "get out" by 11:00, because check-out is at 11:00.  I guess I could give you 30 minutes.  Would that be enough?"  I replied that I was waiting on an email that I would need to print out in the business center, and hopefully it would be there by then.  "I can give you till 12:00." was the response.  I am a Choice Privileges member and a late check-out is one of the perks.  As the site states: "Extended check-out (as late as 2:00 p.m.)".  Now, we weren't going to be there that late because we were headed to a baseball game that started at 1:00, but to have an employee ignore that fact and to say it would be nice if we could "get out" by 11:00 is unacceptable.  As it turned out, we barely needed the 30 minutes.  As we walked by the desk, I tossed the key card on the desk and told her, "We're out".  I'm questioning whether we should even consider this place again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Our second stay at this hotel wasn't what we had expected.  We stayed on August 8-10, 2014.  The first time we stayed back in March, complimentary drinks and appetizers were offered. They have since stopped that, but no mention on their website about it.  
+The room was clean and cool which in the Texas heat is nice.  The hotel wasn't very busy on this particular weekend, so that along with a room in a quiet location made for a good night's sleep. 
+Everything was fine until I called the front desk to ask for a late check-out.  I asked for a late check-out and the girl at the front desk actually said, "Well, it would be nice if you could "get out" by 11:00, because check-out is at 11:00.  I guess I could give you 30 minutes.  Would that be enough?"  I replied that I was waiting on an email that I would need to print out in the business center, and hopefully it would be there by then.  "I can give you till 12:00." was the response.  
+I am a Choice Privileges member and a late check-out is one of the perks.  As the site states: "Extended check-out (as late as 2:00 p.m.)".  Now, we weren't going to be there that late because we were headed to a baseball game that started at 1:00, but to have an employee ignore that fact and to say it would be nice...Our second stay at this hotel wasn't what we had expected.  We stayed on August 8-10, 2014.  The first time we stayed back in March, complimentary drinks and appetizers were offered. They have since stopped that, but no mention on their website about it.  The room was clean and cool which in the Texas heat is nice.  The hotel wasn't very busy on this particular weekend, so that along with a room in a quiet location made for a good night's sleep. Everything was fine until I called the front desk to ask for a late check-out.  I asked for a late check-out and the girl at the front desk actually said, "Well, it would be nice if you could "get out" by 11:00, because check-out is at 11:00.  I guess I could give you 30 minutes.  Would that be enough?"  I replied that I was waiting on an email that I would need to print out in the business center, and hopefully it would be there by then.  "I can give you till 12:00." was the response.  I am a Choice Privileges member and a late check-out is one of the perks.  As the site states: "Extended check-out (as late as 2:00 p.m.)".  Now, we weren't going to be there that late because we were headed to a baseball game that started at 1:00, but to have an employee ignore that fact and to say it would be nice if we could "get out" by 11:00 is unacceptable.  As it turned out, we barely needed the 30 minutes.  As we walked by the desk, I tossed the key card on the desk and told her, "We're out".  I'm questioning whether we should even consider this place again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r201095818-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>201095818</t>
+  </si>
+  <si>
+    <t>04/14/2014</t>
+  </si>
+  <si>
+    <t>A clean hotel with a comfy bed, very quiet</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay this last weekend.  The room was very comfy with plenty of hot water for several showers and the bed was very comfy.  We ask for extra pillows and got them with no problem (even though we wanted 4).  The front desk was always friendly and helpful.  The room seemed very insulated and very quiet.  The only complaint was I made the reservation in advance and tried to change to a 2 bedroom but was not allowed since I paid in advance.  The front desk tried to help me it was choice.com that would not allow any leeway on the "type" of room booked.  The hotel itself was great and lots of breakfast choices.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay this last weekend.  The room was very comfy with plenty of hot water for several showers and the bed was very comfy.  We ask for extra pillows and got them with no problem (even though we wanted 4).  The front desk was always friendly and helpful.  The room seemed very insulated and very quiet.  The only complaint was I made the reservation in advance and tried to change to a 2 bedroom but was not allowed since I paid in advance.  The front desk tried to help me it was choice.com that would not allow any leeway on the "type" of room booked.  The hotel itself was great and lots of breakfast choices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r196817854-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196817854</t>
+  </si>
+  <si>
+    <t>03/09/2014</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised</t>
+  </si>
+  <si>
+    <t>The price and location were right for us since we were in the area for the Houston Rodeo.  We had been driving for a while and weren't going to have a lot of time to eat before going to the concert at the rodeo, so the complimentary drinks and appetizers were a nice surprise to tide us over until after the concert.  The room was clean and amazingly quiet considering the proximity to the interstate.  I liked the fact that there was a recessed area in the bathroom for the ice bucket and cups.  At most hotels, I have to find a spot for those things in order to have room on the bathroom counter for our things.  If we can score tickets to another concert at the rodeo later in the month, we'll be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>The price and location were right for us since we were in the area for the Houston Rodeo.  We had been driving for a while and weren't going to have a lot of time to eat before going to the concert at the rodeo, so the complimentary drinks and appetizers were a nice surprise to tide us over until after the concert.  The room was clean and amazingly quiet considering the proximity to the interstate.  I liked the fact that there was a recessed area in the bathroom for the ice bucket and cups.  At most hotels, I have to find a spot for those things in order to have room on the bathroom counter for our things.  If we can score tickets to another concert at the rodeo later in the month, we'll be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r191700703-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>191700703</t>
+  </si>
+  <si>
+    <t>01/22/2014</t>
+  </si>
+  <si>
+    <t>Nice Quality Hotel</t>
+  </si>
+  <si>
+    <t>As a Platinum member for Choice hotels I see a lot of them throughout the year.. This one ranks on the upper edge...Its a clean, safe and modern hotel with a location just off the freeway. I found the front desk very friendly and thorough... Room was up to date and nicely furnished with an emphasis on clean. I did not partake in the breakfast or use a rather small outdoor pool...didn't see a hot tub...I found the price to be in line with what the area had to offer...I used the CLC travel card and only wish being a Platinum member provided a better discount..</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r180247111-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>180247111</t>
+  </si>
+  <si>
+    <t>10/08/2013</t>
+  </si>
+  <si>
+    <t>AWESOME STAY...STAFF VERY HELPFUL</t>
+  </si>
+  <si>
+    <t>The manger was very professional and helpful from the time I called three weeks before, till I arrived and got my room! The hotel was very clean, great service, awesome breakfast. It was difference everyday!The people that clean the room were very friendly and helpful. I'm recommending that our school use this hotel for ALL its events when we are in the area. I will go here personally when I'm in town.All the staff were helpful, no matter the shift!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Gloria B, Guest Relations Manager at Quality Inn &amp; Suites Houston, responded to this reviewResponded November 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2013</t>
+  </si>
+  <si>
+    <t>The manger was very professional and helpful from the time I called three weeks before, till I arrived and got my room! The hotel was very clean, great service, awesome breakfast. It was difference everyday!The people that clean the room were very friendly and helpful. I'm recommending that our school use this hotel for ALL its events when we are in the area. I will go here personally when I'm in town.All the staff were helpful, no matter the shift!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r180076091-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>180076091</t>
+  </si>
+  <si>
+    <t>10/07/2013</t>
+  </si>
+  <si>
+    <t>Not returning</t>
+  </si>
+  <si>
+    <t>Honestly a really poor hotel stay. On the plus side first: large rooms and comfortable beds, quite clean (could be cleaner), and friendly staff. This hotel is located so close to the interstate/freeway that if your room is facing the road you will be unlikely to enjoy a good night sleep. The room's AC is mounted directly under the window and blows fromt he floor simply straight on to the bed so you have to turn it off during bed time. The breakfast was horrible, served using plastic (yes plastic) cuttlery and plates. I guess at the price the hotel charge I can't complain too much, but I advise to find some other hotel, a bit further away from the road.MoreShow less</t>
+  </si>
+  <si>
+    <t>Honestly a really poor hotel stay. On the plus side first: large rooms and comfortable beds, quite clean (could be cleaner), and friendly staff. This hotel is located so close to the interstate/freeway that if your room is facing the road you will be unlikely to enjoy a good night sleep. The room's AC is mounted directly under the window and blows fromt he floor simply straight on to the bed so you have to turn it off during bed time. The breakfast was horrible, served using plastic (yes plastic) cuttlery and plates. I guess at the price the hotel charge I can't complain too much, but I advise to find some other hotel, a bit further away from the road.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r172702262-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>172702262</t>
+  </si>
+  <si>
+    <t>08/17/2013</t>
+  </si>
+  <si>
+    <t>Third stay and will be returning!</t>
+  </si>
+  <si>
+    <t>I sincerely and wholeheartedly recommend this hotel. The manager, Tony Le and his staff cannot do enough to ensure you have the perfect stay. The added touches are the 'icing on the cake' - on tap tea and coffee, little extras at breakfast, flowers, hot tub and Mr Le's honest inquiry 'anything else I can do for you?' makes you feel so welcome and part of the Le family. I adore this man!The rooms are fabulously clean, comfortable and well equipped. The beds divinely comfortable and new. Towels are white and fluffy.The pool is well maintained, Ph checked daily (rarely have I seen that!) and emptied for thorough cleaning as needed. Above anything else I've commented on and most important for families, I felt safe here :)Thank you ALL for a fabulous stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I sincerely and wholeheartedly recommend this hotel. The manager, Tony Le and his staff cannot do enough to ensure you have the perfect stay. The added touches are the 'icing on the cake' - on tap tea and coffee, little extras at breakfast, flowers, hot tub and Mr Le's honest inquiry 'anything else I can do for you?' makes you feel so welcome and part of the Le family. I adore this man!The rooms are fabulously clean, comfortable and well equipped. The beds divinely comfortable and new. Towels are white and fluffy.The pool is well maintained, Ph checked daily (rarely have I seen that!) and emptied for thorough cleaning as needed. Above anything else I've commented on and most important for families, I felt safe here :)Thank you ALL for a fabulous stay!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1031,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1063,1420 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>54</v>
+      </c>
+      <c r="X5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>54</v>
+      </c>
+      <c r="X7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>142</v>
+      </c>
+      <c r="O14" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>149</v>
+      </c>
+      <c r="X15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>157</v>
+      </c>
+      <c r="O16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>160</v>
+      </c>
+      <c r="J17" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" t="s">
+        <v>162</v>
+      </c>
+      <c r="L17" t="s">
+        <v>163</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>164</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" t="s">
+        <v>168</v>
+      </c>
+      <c r="K18" t="s">
+        <v>169</v>
+      </c>
+      <c r="L18" t="s">
+        <v>170</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>171</v>
+      </c>
+      <c r="O18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" t="s">
+        <v>177</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>178</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20" t="s">
+        <v>181</v>
+      </c>
+      <c r="K20" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>184</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>185</v>
+      </c>
+      <c r="X20" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" t="s">
+        <v>190</v>
+      </c>
+      <c r="K21" t="s">
+        <v>191</v>
+      </c>
+      <c r="L21" t="s">
+        <v>192</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>184</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>185</v>
+      </c>
+      <c r="X21" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" t="s">
+        <v>196</v>
+      </c>
+      <c r="K22" t="s">
+        <v>197</v>
+      </c>
+      <c r="L22" t="s">
+        <v>198</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>199</v>
+      </c>
+      <c r="O22" t="s">
+        <v>200</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_513.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_513.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="311">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r603340165-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223157</t>
+  </si>
+  <si>
+    <t>603340165</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>Need something close to the airport, cheap and with breakfast/shuttle?</t>
+  </si>
+  <si>
+    <t>We needed a place to crash for a long layover and could not have found a better place. The staff was SUPER friendly and helped us with everything. The room was clean and nice, bathroom spotless and nothing was lacking really. The hotel is small and could use a tiny bit of renovating but it is still very good. Buffet breakfast was smaller than usual but not just a toast and coffee, there were eggs, sausages, cornflakes, oatmeal, waffles, fruits, juice, etcI would def stay here again if I need something close to the airport and cheap. Thanks I forgot your name but you were working the night / graveyard shift!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Nerissa M, Guest Relations Manager at Quality Inn &amp; Suites Houston, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>We needed a place to crash for a long layover and could not have found a better place. The staff was SUPER friendly and helped us with everything. The room was clean and nice, bathroom spotless and nothing was lacking really. The hotel is small and could use a tiny bit of renovating but it is still very good. Buffet breakfast was smaller than usual but not just a toast and coffee, there were eggs, sausages, cornflakes, oatmeal, waffles, fruits, juice, etcI would def stay here again if I need something close to the airport and cheap. Thanks I forgot your name but you were working the night / graveyard shift!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r595727346-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>595727346</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>Not worth it</t>
+  </si>
+  <si>
+    <t>When we got there staff was friendly everything was fine until we got to the room.Carpet has stains, they didn't notify us they had plumbing issues where the toilet was brown water was murky brown we had to run them until it was clMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Nerissa M, Guest Relations Manager at Quality Inn &amp; Suites Houston, responded to this reviewResponded July 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2018</t>
+  </si>
+  <si>
+    <t>When we got there staff was friendly everything was fine until we got to the room.Carpet has stains, they didn't notify us they had plumbing issues where the toilet was brown water was murky brown we had to run them until it was clMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r574785609-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>223157</t>
-  </si>
-  <si>
     <t>574785609</t>
   </si>
   <si>
@@ -234,6 +291,45 @@
     <t>This is a nice relatively modern property. I had no major complaints but the fountain in the fitness center does not work and maybe it is redundant because there is one working just outside the door of the room. Not redundant is the inoperative ice machine on the first floor requiring a trip to the third floor for ice. The highway department manage to place the new entrance ramp to the freeway about 50 feet out of reach from the motel making you go through multiple slow lights to enter the freeway.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r499547857-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>499547857</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Horrible hotel</t>
+  </si>
+  <si>
+    <t>This hotel is horrible!  Our room smelled old and musty!  Our fire alarm was hanging from the ceiling. We reported and front desk and they had no one there to fix it. told us they would wake us if there was a fire. Stay away from here!!  Any hotel would be better than this one. Do not waste your money here. Hotel is horrible and they do not even try to make it right!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is horrible!  Our room smelled old and musty!  Our fire alarm was hanging from the ceiling. We reported and front desk and they had no one there to fix it. told us they would wake us if there was a fire. Stay away from here!!  Any hotel would be better than this one. Do not waste your money here. Hotel is horrible and they do not even try to make it right!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r451783549-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>451783549</t>
+  </si>
+  <si>
+    <t>01/13/2017</t>
+  </si>
+  <si>
+    <t>Not bad.</t>
+  </si>
+  <si>
+    <t>The night my boss and i checked in they gave us a king suite each and didnt charge additionally. The hotel is newer construction but some stuff in rooms needs replaced. The cable service is bad! Bed was not so bad and over all my room wasnt bad. Just needs some updating and replacing of items. Staff was great!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>The night my boss and i checked in they gave us a king suite each and didnt charge additionally. The hotel is newer construction but some stuff in rooms needs replaced. The cable service is bad! Bed was not so bad and over all my room wasnt bad. Just needs some updating and replacing of items. Staff was great!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r449445597-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
   </si>
   <si>
@@ -247,12 +343,6 @@
   </si>
   <si>
     <t>The smell as you enter the room is horrid! The smoke detector is missing in the room and the switch to one of the lights is broken. The window from the outside is filthy. The red light on the phone keeps blinking as if there is a message but their is not. I am not a high maintainance person but this was not what I expected.MoreShow less</t>
-  </si>
-  <si>
-    <t>January 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>The smell as you enter the room is horrid! The smoke detector is missing in the room and the switch to one of the lights is broken. The window from the outside is filthy. The red light on the phone keeps blinking as if there is a message but their is not. I am not a high maintainance person but this was not what I expected.More</t>
@@ -313,6 +403,55 @@
     <t>We had a good stay at the Quality Inn. The place looks fairly new and we had a nice big room that was comfortable and quiet. Everything was cleaned properly, the hot breakfast in the spacey breakfast room contained sausages and eggs, so we left happy. Also, a question about the coffee machine was dealt with promptly.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r421498517-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>421498517</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>Natalie is amazing!</t>
+  </si>
+  <si>
+    <t>Outstanding service! We are having a wedding in November and advised our guests to book reservations at this property (when it was Country Inn).  Then, it switched to Quality Inn and created quite a commotion. I called the property to reserve the room block and it was EFFORTLESS! Natalie was able to address all my concerns, book the room block in seconds, and informed me of the guests that have already reserved. She was extremely flexible with room type and dates and made this experience so easy. That makes a huge difference! I tried to block rooms at another property and they were less than accommodating, so to speak with Natalie and get everything taken care of in a matter of minutes was a huge relief. I called back to make a change and she answered the phone, "Hi Miss [last name]". Such amazing service and my guests haven't even arrived. I truly appreciate her assistance.MoreShow less</t>
+  </si>
+  <si>
+    <t>Outstanding service! We are having a wedding in November and advised our guests to book reservations at this property (when it was Country Inn).  Then, it switched to Quality Inn and created quite a commotion. I called the property to reserve the room block and it was EFFORTLESS! Natalie was able to address all my concerns, book the room block in seconds, and informed me of the guests that have already reserved. She was extremely flexible with room type and dates and made this experience so easy. That makes a huge difference! I tried to block rooms at another property and they were less than accommodating, so to speak with Natalie and get everything taken care of in a matter of minutes was a huge relief. I called back to make a change and she answered the phone, "Hi Miss [last name]". Such amazing service and my guests haven't even arrived. I truly appreciate her assistance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r402208524-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>402208524</t>
+  </si>
+  <si>
+    <t>08/06/2016</t>
+  </si>
+  <si>
+    <t>No Reliable Internet--No Matter What Management Says</t>
+  </si>
+  <si>
+    <t>I would not recommend staying here--nor will I make the mistake of doing so again. I stayed here for two months as an extended stay while I was working in Houston. It ran cheaper than what renting an apartment would have cost and I didn't have to worry about utilities, Internet, etc. so I thought it was a good deal. When I opened up the bidding for what I wanted on Hotels.com, I specifically highlighted two priorities: cleanliness and reliable, high-speed wi-fi. Unfortunately, while the room was decently clean, the Internet was entirely unreliable, staff was not capable of fixing it, and MacroTech (the IT support) were the most incompetent idiots I've ever encountered (they could barely speak in full sentences over the phone). Overall, I was HIGHLY DISAPPOINTED with my stay and will not be staying here again. 
+(I realize some might say that one star is harsh for this review, however, when a hotelier promises that he can meet my specific priority requests and fails to do so, I lose any trust for him or his establishment. Also, "it's out of our hands," is not a valid excuse when you've promised something and then can't deliver.)
+PROS: Not as expensive as most hotels in Houston, easy access to Hwy 290, free breakfast is actually edible (most days), Jean (at the front desk) was always friendly and check-in was quick and hassle-free, housecleaning was reliable and did a good...I would not recommend staying here--nor will I make the mistake of doing so again. I stayed here for two months as an extended stay while I was working in Houston. It ran cheaper than what renting an apartment would have cost and I didn't have to worry about utilities, Internet, etc. so I thought it was a good deal. When I opened up the bidding for what I wanted on Hotels.com, I specifically highlighted two priorities: cleanliness and reliable, high-speed wi-fi. Unfortunately, while the room was decently clean, the Internet was entirely unreliable, staff was not capable of fixing it, and MacroTech (the IT support) were the most incompetent idiots I've ever encountered (they could barely speak in full sentences over the phone). Overall, I was HIGHLY DISAPPOINTED with my stay and will not be staying here again. (I realize some might say that one star is harsh for this review, however, when a hotelier promises that he can meet my specific priority requests and fails to do so, I lose any trust for him or his establishment. Also, "it's out of our hands," is not a valid excuse when you've promised something and then can't deliver.)PROS: Not as expensive as most hotels in Houston, easy access to Hwy 290, free breakfast is actually edible (most days), Jean (at the front desk) was always friendly and check-in was quick and hassle-free, housecleaning was reliable and did a good job (came once a week for extended stays).CONS: towels were scratchy (I ended up bring Bing and using my own), air conditioner was loud, walls were thin (multiple families with screaming children were staying at the hotel over the course of my stay), construction nearby is non-stop and delays traffic by ~15mins everyday (turning a 25 minute commute into a 40-50min commute), no decent restaurants within walking distance, far away from downtown, no reliable internet, unreliable dry cleaning service.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Rick P, Manager at Quality Inn &amp; Suites Houston, responded to this reviewResponded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2016</t>
+  </si>
+  <si>
+    <t>I would not recommend staying here--nor will I make the mistake of doing so again. I stayed here for two months as an extended stay while I was working in Houston. It ran cheaper than what renting an apartment would have cost and I didn't have to worry about utilities, Internet, etc. so I thought it was a good deal. When I opened up the bidding for what I wanted on Hotels.com, I specifically highlighted two priorities: cleanliness and reliable, high-speed wi-fi. Unfortunately, while the room was decently clean, the Internet was entirely unreliable, staff was not capable of fixing it, and MacroTech (the IT support) were the most incompetent idiots I've ever encountered (they could barely speak in full sentences over the phone). Overall, I was HIGHLY DISAPPOINTED with my stay and will not be staying here again. 
+(I realize some might say that one star is harsh for this review, however, when a hotelier promises that he can meet my specific priority requests and fails to do so, I lose any trust for him or his establishment. Also, "it's out of our hands," is not a valid excuse when you've promised something and then can't deliver.)
+PROS: Not as expensive as most hotels in Houston, easy access to Hwy 290, free breakfast is actually edible (most days), Jean (at the front desk) was always friendly and check-in was quick and hassle-free, housecleaning was reliable and did a good...I would not recommend staying here--nor will I make the mistake of doing so again. I stayed here for two months as an extended stay while I was working in Houston. It ran cheaper than what renting an apartment would have cost and I didn't have to worry about utilities, Internet, etc. so I thought it was a good deal. When I opened up the bidding for what I wanted on Hotels.com, I specifically highlighted two priorities: cleanliness and reliable, high-speed wi-fi. Unfortunately, while the room was decently clean, the Internet was entirely unreliable, staff was not capable of fixing it, and MacroTech (the IT support) were the most incompetent idiots I've ever encountered (they could barely speak in full sentences over the phone). Overall, I was HIGHLY DISAPPOINTED with my stay and will not be staying here again. (I realize some might say that one star is harsh for this review, however, when a hotelier promises that he can meet my specific priority requests and fails to do so, I lose any trust for him or his establishment. Also, "it's out of our hands," is not a valid excuse when you've promised something and then can't deliver.)PROS: Not as expensive as most hotels in Houston, easy access to Hwy 290, free breakfast is actually edible (most days), Jean (at the front desk) was always friendly and check-in was quick and hassle-free, housecleaning was reliable and did a good job (came once a week for extended stays).CONS: towels were scratchy (I ended up bring Bing and using my own), air conditioner was loud, walls were thin (multiple families with screaming children were staying at the hotel over the course of my stay), construction nearby is non-stop and delays traffic by ~15mins everyday (turning a 25 minute commute into a 40-50min commute), no decent restaurants within walking distance, far away from downtown, no reliable internet, unreliable dry cleaning service.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r389500521-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
   </si>
   <si>
@@ -355,9 +494,6 @@
     <t>The manager told me by phone that he'd work with me regrading adjusting a reservation but would not one I arrived when he was contacted by staff.  Dying cockroach in room.  Litter in parking lot and breakfast was not fresh.  Staff were helpful.</t>
   </si>
   <si>
-    <t>June 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r366198039-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
   </si>
   <si>
@@ -379,6 +515,39 @@
     <t>I have stayed at this location several times before and even completed a review over a year ago.  The reason why I am submitting another review is due to the 290 construction.  l will start off with my list of pro's and con's to help guide you on selecting a hotel.Pro's:  hotel located off 290 and less than six minutes from 610, great value, parking lot with adequate lighting and clean hotel.Con's:  290 construction noise begins at 4-5am, furnishings are beginning to look a little worn and room temperature did not adequately regulate.  Please take into account the construction noise that you will experience during your stay if you are a light sleeper.  I understand that this issue is beyond the hotels control.  Try requesting a room opposing 290 or take some noise reduction items so that you can enjoy your stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r360128698-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>360128698</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
+  </si>
+  <si>
+    <t>Very comfortable place to stay. Good value for the money.</t>
+  </si>
+  <si>
+    <t>Stayed one night at the Hotel in room 204. Moe at the front desk provided a warm welcome and exceptional service. Breakfast the next morning was very good and was included in the price of the room. Room was neat and clean and good value for the money. The room compared very well with the Hilton Hotel we had stayed in earlier, at a much higher price with no breakfast!Shower walls had some mildew at the bottom, opposite the faucet. That is the only negative thing I could think of.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r357431716-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357431716</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Reluctant to go back</t>
+  </si>
+  <si>
+    <t>The walls are thin we could hear conversations in the next room.The counter could use more than just one person attempting to help a line of 4 people. The breakfast tasted very watered-down, the the hotel itself is decent but it seemed like they were on a strict budget of having quality food for breakfast. We also didn't like how the Hallways smelled of cigarette smoke.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r348339322-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
   </si>
   <si>
@@ -433,6 +602,45 @@
     <t>Room looked clean, wi-fi is super slow. Found a roach crawling across the floor, that made me nervous ! Bath room looked very clean, vending machine on 3rd floor was empty. The washer and dryer for laundry is old and slow.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r311084014-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>311084014</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>Great Budget Hotel!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel 9/11/15-9/13/15. I was very pleased with my stay. Stephanie the front desk agent is a jewel and gave me very good customer service. The room was spacious, very clean, and the beds were comfy. The standard room comes equipped with a mini fridge, and coffee maker. A microwave is in the lobby for your use. Security is on staff but the area seems to be good. While I was gone in the car, my boyfriend took a three block walk to Pizza Hut around 10 at night.  This hotel offers breakfast! While we were there sausage/gravy biscuits, yougart, danishes, cereal, and fruit was on the menu. This hotel was very reasonably priced and it's a short distance from the Galleria Mall. I did not have any problems during my stay. The only draw is construction is going on in some areas near the hotel and if you are relying on gps to get you there you will get turned around. If you pay attention to monuments you won't have any problems getting back as gps will get you near the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel 9/11/15-9/13/15. I was very pleased with my stay. Stephanie the front desk agent is a jewel and gave me very good customer service. The room was spacious, very clean, and the beds were comfy. The standard room comes equipped with a mini fridge, and coffee maker. A microwave is in the lobby for your use. Security is on staff but the area seems to be good. While I was gone in the car, my boyfriend took a three block walk to Pizza Hut around 10 at night.  This hotel offers breakfast! While we were there sausage/gravy biscuits, yougart, danishes, cereal, and fruit was on the menu. This hotel was very reasonably priced and it's a short distance from the Galleria Mall. I did not have any problems during my stay. The only draw is construction is going on in some areas near the hotel and if you are relying on gps to get you there you will get turned around. If you pay attention to monuments you won't have any problems getting back as gps will get you near the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r274825725-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274825725</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Spacious rooms, convenient location, friendly staff</t>
+  </si>
+  <si>
+    <t>The room was quite spacious, the staff went above and beyond to accommodate us. Breakfast ends at 9:00, we over slept and the staff members graciously allowed us to take our time and eat breakfast before they had to clean the breakfast area. The pool was a little on the small side, but typical of a hotel size pool with a hot tub.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r273609063-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
   </si>
   <si>
@@ -446,9 +654,6 @@
   </si>
   <si>
     <t>This hotel is located in N.W. Houston, easy access to Highway 290 - great if your traveling onto College Stn/Bryan, TX area.  This hotel had one of the cleanest rooms that I have ever stayed in !!  Courteous staff - from housekeeping, front desk &amp; maintenance.</t>
-  </si>
-  <si>
-    <t>May 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r237900958-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
@@ -511,6 +716,42 @@
 I am a Choice Privileges member and a late check-out is one of the perks.  As the site states: "Extended check-out (as late as 2:00 p.m.)".  Now, we weren't going to be there that late because we were headed to a baseball game that started at 1:00, but to have an employee ignore that fact and to say it would be nice...Our second stay at this hotel wasn't what we had expected.  We stayed on August 8-10, 2014.  The first time we stayed back in March, complimentary drinks and appetizers were offered. They have since stopped that, but no mention on their website about it.  The room was clean and cool which in the Texas heat is nice.  The hotel wasn't very busy on this particular weekend, so that along with a room in a quiet location made for a good night's sleep. Everything was fine until I called the front desk to ask for a late check-out.  I asked for a late check-out and the girl at the front desk actually said, "Well, it would be nice if you could "get out" by 11:00, because check-out is at 11:00.  I guess I could give you 30 minutes.  Would that be enough?"  I replied that I was waiting on an email that I would need to print out in the business center, and hopefully it would be there by then.  "I can give you till 12:00." was the response.  I am a Choice Privileges member and a late check-out is one of the perks.  As the site states: "Extended check-out (as late as 2:00 p.m.)".  Now, we weren't going to be there that late because we were headed to a baseball game that started at 1:00, but to have an employee ignore that fact and to say it would be nice if we could "get out" by 11:00 is unacceptable.  As it turned out, we barely needed the 30 minutes.  As we walked by the desk, I tossed the key card on the desk and told her, "We're out".  I'm questioning whether we should even consider this place again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r208933402-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>208933402</t>
+  </si>
+  <si>
+    <t>06/04/2014</t>
+  </si>
+  <si>
+    <t>Best Value near the Airport</t>
+  </si>
+  <si>
+    <t>We drove from Corpus Christi the 3 1/2 hours to Houston to catch an early flight the following morning to Roatan Honduras for a family vacation and needed a place to stay. The Quality Suites Intercontinental Airport West in Houston fit the bill perfectly for our family party of 5. Close to the airport, comfortable suite, friendly accommodating staff, and a hot breakfast. What more could a family on the go ask for?</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r202202858-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>202202858</t>
+  </si>
+  <si>
+    <t>04/22/2014</t>
+  </si>
+  <si>
+    <t>Superior Staff and Service</t>
+  </si>
+  <si>
+    <t>A special thank you to Bethany and Tara at this hotel for their very accommodating service.  From the moment that Bethany picked me up at the airport until my departure, I was well taken care of by the polite and very efficient staff.  My room was large, clean, and well appointed.  Gym equipment was adequate and functional and breakfast was a notch above most hotel breakfasts.  The staff arranged for my cab and made sure it arrived on time. And finally, the price for my hotel stay in this area of Houston was very reasonable.  I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r201095818-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
   </si>
   <si>
@@ -526,9 +767,6 @@
     <t>I enjoyed my stay this last weekend.  The room was very comfy with plenty of hot water for several showers and the bed was very comfy.  We ask for extra pillows and got them with no problem (even though we wanted 4).  The front desk was always friendly and helpful.  The room seemed very insulated and very quiet.  The only complaint was I made the reservation in advance and tried to change to a 2 bedroom but was not allowed since I paid in advance.  The front desk tried to help me it was choice.com that would not allow any leeway on the "type" of room booked.  The hotel itself was great and lots of breakfast choices.MoreShow less</t>
   </si>
   <si>
-    <t>April 2014</t>
-  </si>
-  <si>
     <t>I enjoyed my stay this last weekend.  The room was very comfy with plenty of hot water for several showers and the bed was very comfy.  We ask for extra pillows and got them with no problem (even though we wanted 4).  The front desk was always friendly and helpful.  The room seemed very insulated and very quiet.  The only complaint was I made the reservation in advance and tried to change to a 2 bedroom but was not allowed since I paid in advance.  The front desk tried to help me it was choice.com that would not allow any leeway on the "type" of room booked.  The hotel itself was great and lots of breakfast choices.More</t>
   </si>
   <si>
@@ -571,6 +809,60 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r187545464-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>187545464</t>
+  </si>
+  <si>
+    <t>12/13/2013</t>
+  </si>
+  <si>
+    <t>Disappointed by the hotel facilities, but has good staff</t>
+  </si>
+  <si>
+    <t>After having stayed at different Marriot &amp; Hiltons in the same city , this hotel discppointed me(although priced almost same).Had to stay there for a day to attend a meeting nearby. But was disappointed by overll experience including breakfast, amenities. Rooms were quite ok.But was touched by the stafff assistance. Had a muscle sprain after playing golf over the weekend. At 1 in the night the reception arranged medicine for me. Will always be gratefull.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Gloria B, Guest Relations Manager at Quality Inn &amp; Suites Houston, responded to this reviewResponded December 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2013</t>
+  </si>
+  <si>
+    <t>After having stayed at different Marriot &amp; Hiltons in the same city , this hotel discppointed me(although priced almost same).Had to stay there for a day to attend a meeting nearby. But was disappointed by overll experience including breakfast, amenities. Rooms were quite ok.But was touched by the stafff assistance. Had a muscle sprain after playing golf over the weekend. At 1 in the night the reception arranged medicine for me. Will always be gratefull.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r185287004-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>185287004</t>
+  </si>
+  <si>
+    <t>11/20/2013</t>
+  </si>
+  <si>
+    <t>amazing hotel</t>
+  </si>
+  <si>
+    <t>not-your average Quality inn.  The room was great, clean bedding, clean bathroom all the things to expect. I was 7 days into a trip and needed to do laundry, I washed clothes and all came clean.  The dryer was broke !!!!.  The manager took it upon himself after asking several to dry my clothing in the hotels commercial dryer.  he accommodated and and refunded my money for the dryer broken 5.00.  What a great management team and a great hotel and breakfast this morning was really really good.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Gloria B, Guest Relations Manager at Quality Inn &amp; Suites Houston, responded to this reviewResponded November 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2013</t>
+  </si>
+  <si>
+    <t>not-your average Quality inn.  The room was great, clean bedding, clean bathroom all the things to expect. I was 7 days into a trip and needed to do laundry, I washed clothes and all came clean.  The dryer was broke !!!!.  The manager took it upon himself after asking several to dry my clothing in the hotels commercial dryer.  he accommodated and and refunded my money for the dryer broken 5.00.  What a great management team and a great hotel and breakfast this morning was really really good.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r180247111-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
   </si>
   <si>
@@ -634,10 +926,49 @@
     <t>August 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>I sincerely and wholeheartedly recommend this hotel. The manager, Tony Le and his staff cannot do enough to ensure you have the perfect stay. The added touches are the 'icing on the cake' - on tap tea and coffee, little extras at breakfast, flowers, hot tub and Mr Le's honest inquiry 'anything else I can do for you?' makes you feel so welcome and part of the Le family. I adore this man!The rooms are fabulously clean, comfortable and well equipped. The beds divinely comfortable and new. Towels are white and fluffy.The pool is well maintained, Ph checked daily (rarely have I seen that!) and emptied for thorough cleaning as needed. Above anything else I've commented on and most important for families, I felt safe here :)Thank you ALL for a fabulous stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r171002846-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>171002846</t>
+  </si>
+  <si>
+    <t>08/06/2013</t>
+  </si>
+  <si>
+    <t>Good staff, clean Quality Inn, careful on location</t>
+  </si>
+  <si>
+    <t>Very nice staff at the Quality Inn. clean property recently overhauled, breakfast as expectedJust be careful on the location, you need to be off the Freeway ramp to the Northwest or navigate the back route !MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Very nice staff at the Quality Inn. clean property recently overhauled, breakfast as expectedJust be careful on the location, you need to be off the Freeway ramp to the Northwest or navigate the back route !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223157-r164601026-Quality_Inn_Suites_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>164601026</t>
+  </si>
+  <si>
+    <t>06/20/2013</t>
+  </si>
+  <si>
+    <t>Nice new touches</t>
+  </si>
+  <si>
+    <t>I stayed there in June 2013. The hotel had just gotten a fresh new coat of paint, adding some new color that complemented the room and adding some nice new touches.The staff told me it was a Holiday Inn Express and they Just opened the Quality Inn in January 2013.  Rooms were very clean and quiet. I could not hear the freeway when I was in my room, even with the tv off. Breakfast was delicious.There was quite a selection to choose from. The staff was so friendly and helpful. The business center felt like my own personal office. I am really happy with my stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I stayed there in June 2013. The hotel had just gotten a fresh new coat of paint, adding some new color that complemented the room and adding some nice new touches.The staff told me it was a Holiday Inn Express and they Just opened the Quality Inn in January 2013.  Rooms were very clean and quiet. I could not hear the freeway when I was in my room, even with the tv off. Breakfast was delicious.There was quite a selection to choose from. The staff was so friendly and helpful. The business center felt like my own personal office. I am really happy with my stay here.More</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1503,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1180,12 +1511,18 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1233,31 +1570,35 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
         <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1273,7 +1614,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1282,47 +1623,43 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1338,7 +1675,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1347,49 +1684,43 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -1405,7 +1736,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1414,47 +1745,47 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
@@ -1470,7 +1801,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1479,25 +1810,25 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1509,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="X7" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="Y7" t="s">
         <v>96</v>
@@ -1552,35 +1883,31 @@
         <v>101</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
         <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>73</v>
+      </c>
+      <c r="X8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y8" t="s">
         <v>103</v>
-      </c>
-      <c r="X8" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -1596,7 +1923,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1605,43 +1932,49 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
         <v>107</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>108</v>
-      </c>
-      <c r="K9" t="s">
-        <v>109</v>
-      </c>
-      <c r="L9" t="s">
-        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>78</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>2</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X9" t="s">
+        <v>74</v>
+      </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
@@ -1657,7 +1990,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1666,43 +1999,47 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
         <v>113</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>114</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>115</v>
       </c>
-      <c r="L10" t="s">
+      <c r="O10" t="s">
         <v>116</v>
       </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>117</v>
-      </c>
-      <c r="O10" t="s">
-        <v>70</v>
-      </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X10" t="s">
+        <v>118</v>
+      </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
@@ -1718,7 +2055,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1727,45 +2064,43 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>73</v>
+      </c>
+      <c r="X11" t="s">
+        <v>74</v>
+      </c>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
@@ -1781,7 +2116,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1790,39 +2125,43 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
@@ -1838,7 +2177,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1847,22 +2186,26 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
@@ -1872,10 +2215,14 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" t="s">
+        <v>140</v>
+      </c>
       <c r="Y13" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14">
@@ -1891,7 +2238,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1900,43 +2247,47 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L14" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="O14" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s">
+        <v>149</v>
+      </c>
       <c r="Y14" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
@@ -1952,7 +2303,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1961,49 +2312,43 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="O15" t="s">
-        <v>70</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>149</v>
-      </c>
-      <c r="X15" t="s">
-        <v>150</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
@@ -2019,7 +2364,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2028,34 +2373,32 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="O16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
         <v>4</v>
       </c>
-      <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>3</v>
@@ -2066,7 +2409,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
@@ -2082,7 +2425,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2091,38 +2434,34 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="n">
         <v>4</v>
       </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>5</v>
@@ -2133,7 +2472,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
@@ -2149,7 +2488,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2158,41 +2497,35 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" t="s">
+        <v>172</v>
+      </c>
+      <c r="L18" t="s">
+        <v>173</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
         <v>168</v>
       </c>
-      <c r="K18" t="s">
-        <v>169</v>
-      </c>
-      <c r="L18" t="s">
-        <v>170</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>171</v>
-      </c>
       <c r="O18" t="s">
-        <v>86</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
       <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2200,7 +2533,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
@@ -2216,7 +2549,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2225,35 +2558,31 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="n">
-        <v>4</v>
-      </c>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="n">
         <v>5</v>
       </c>
@@ -2267,7 +2596,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
@@ -2283,7 +2612,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2292,53 +2621,39 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>185</v>
-      </c>
-      <c r="X20" t="s">
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
         <v>186</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="21">
@@ -2354,7 +2669,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2363,53 +2678,35 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
+        <v>188</v>
+      </c>
+      <c r="J21" t="s">
         <v>189</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>190</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>191</v>
       </c>
-      <c r="L21" t="s">
-        <v>192</v>
-      </c>
       <c r="M21" t="n">
-        <v>2</v>
-      </c>
-      <c r="N21" t="s">
-        <v>184</v>
-      </c>
-      <c r="O21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2</v>
-      </c>
-      <c r="S21" t="n">
         <v>3</v>
       </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>2</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>185</v>
-      </c>
-      <c r="X21" t="s">
-        <v>186</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22">
@@ -2425,7 +2722,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2434,38 +2731,32 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
+        <v>193</v>
+      </c>
+      <c r="J22" t="s">
+        <v>194</v>
+      </c>
+      <c r="K22" t="s">
         <v>195</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>196</v>
       </c>
-      <c r="K22" t="s">
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>197</v>
       </c>
-      <c r="L22" t="s">
-        <v>198</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>199</v>
-      </c>
       <c r="O22" t="s">
-        <v>200</v>
+        <v>116</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
       </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
         <v>5</v>
@@ -2476,7 +2767,1089 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>200</v>
+      </c>
+      <c r="J23" t="s">
         <v>201</v>
+      </c>
+      <c r="K23" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" t="s">
+        <v>203</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>204</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>206</v>
+      </c>
+      <c r="J24" t="s">
+        <v>207</v>
+      </c>
+      <c r="K24" t="s">
+        <v>208</v>
+      </c>
+      <c r="L24" t="s">
+        <v>209</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>204</v>
+      </c>
+      <c r="O24" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>211</v>
+      </c>
+      <c r="J25" t="s">
+        <v>212</v>
+      </c>
+      <c r="K25" t="s">
+        <v>213</v>
+      </c>
+      <c r="L25" t="s">
+        <v>214</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>215</v>
+      </c>
+      <c r="O25" t="s">
+        <v>89</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>216</v>
+      </c>
+      <c r="X25" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>219</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>220</v>
+      </c>
+      <c r="J26" t="s">
+        <v>221</v>
+      </c>
+      <c r="K26" t="s">
+        <v>222</v>
+      </c>
+      <c r="L26" t="s">
+        <v>223</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>224</v>
+      </c>
+      <c r="O26" t="s">
+        <v>116</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>226</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>227</v>
+      </c>
+      <c r="J27" t="s">
+        <v>228</v>
+      </c>
+      <c r="K27" t="s">
+        <v>229</v>
+      </c>
+      <c r="L27" t="s">
+        <v>230</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>231</v>
+      </c>
+      <c r="O27" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>233</v>
+      </c>
+      <c r="J28" t="s">
+        <v>234</v>
+      </c>
+      <c r="K28" t="s">
+        <v>235</v>
+      </c>
+      <c r="L28" t="s">
+        <v>236</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>237</v>
+      </c>
+      <c r="O28" t="s">
+        <v>72</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>238</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>239</v>
+      </c>
+      <c r="J29" t="s">
+        <v>240</v>
+      </c>
+      <c r="K29" t="s">
+        <v>241</v>
+      </c>
+      <c r="L29" t="s">
+        <v>242</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>237</v>
+      </c>
+      <c r="O29" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>244</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>245</v>
+      </c>
+      <c r="J30" t="s">
+        <v>246</v>
+      </c>
+      <c r="K30" t="s">
+        <v>247</v>
+      </c>
+      <c r="L30" t="s">
+        <v>248</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>249</v>
+      </c>
+      <c r="O30" t="s">
+        <v>116</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>251</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>252</v>
+      </c>
+      <c r="J31" t="s">
+        <v>253</v>
+      </c>
+      <c r="K31" t="s">
+        <v>254</v>
+      </c>
+      <c r="L31" t="s">
+        <v>255</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>256</v>
+      </c>
+      <c r="O31" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>257</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>258</v>
+      </c>
+      <c r="J32" t="s">
+        <v>259</v>
+      </c>
+      <c r="K32" t="s">
+        <v>260</v>
+      </c>
+      <c r="L32" t="s">
+        <v>261</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>262</v>
+      </c>
+      <c r="O32" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>263</v>
+      </c>
+      <c r="X32" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>266</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J33" t="s">
+        <v>268</v>
+      </c>
+      <c r="K33" t="s">
+        <v>269</v>
+      </c>
+      <c r="L33" t="s">
+        <v>270</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>271</v>
+      </c>
+      <c r="O33" t="s">
+        <v>72</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>272</v>
+      </c>
+      <c r="X33" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>275</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>276</v>
+      </c>
+      <c r="J34" t="s">
+        <v>277</v>
+      </c>
+      <c r="K34" t="s">
+        <v>278</v>
+      </c>
+      <c r="L34" t="s">
+        <v>279</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>280</v>
+      </c>
+      <c r="O34" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>281</v>
+      </c>
+      <c r="X34" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>284</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>285</v>
+      </c>
+      <c r="J35" t="s">
+        <v>286</v>
+      </c>
+      <c r="K35" t="s">
+        <v>287</v>
+      </c>
+      <c r="L35" t="s">
+        <v>288</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>280</v>
+      </c>
+      <c r="O35" t="s">
+        <v>72</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>281</v>
+      </c>
+      <c r="X35" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>290</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>291</v>
+      </c>
+      <c r="J36" t="s">
+        <v>292</v>
+      </c>
+      <c r="K36" t="s">
+        <v>293</v>
+      </c>
+      <c r="L36" t="s">
+        <v>294</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>295</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>297</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>298</v>
+      </c>
+      <c r="J37" t="s">
+        <v>299</v>
+      </c>
+      <c r="K37" t="s">
+        <v>300</v>
+      </c>
+      <c r="L37" t="s">
+        <v>301</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>302</v>
+      </c>
+      <c r="O37" t="s">
+        <v>72</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>281</v>
+      </c>
+      <c r="X37" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>41916</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>304</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>305</v>
+      </c>
+      <c r="J38" t="s">
+        <v>306</v>
+      </c>
+      <c r="K38" t="s">
+        <v>307</v>
+      </c>
+      <c r="L38" t="s">
+        <v>308</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>309</v>
+      </c>
+      <c r="O38" t="s">
+        <v>72</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>281</v>
+      </c>
+      <c r="X38" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
